--- a/Cleaned_Data/WaitTime_vs_ExecTime_by_JobSize.xlsx
+++ b/Cleaned_Data/WaitTime_vs_ExecTime_by_JobSize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="65">
   <si>
     <t>title</t>
   </si>
@@ -167,6 +167,48 @@
   </si>
   <si>
     <t>Job Size =  65 - 256; %Jobs CDF</t>
+  </si>
+  <si>
+    <t>Job Wall Time Upper Bound (log10(sec))</t>
+  </si>
+  <si>
+    <t>Activity (100 * WallTime / (WallTime + QueueTime))</t>
+  </si>
+  <si>
+    <t>Number of CPU Hours Consumed: by Job Size</t>
+  </si>
+  <si>
+    <t>Hours, up to 256 Cores</t>
+  </si>
+  <si>
+    <t>%CPU Hours, up to 256 Cores</t>
+  </si>
+  <si>
+    <t>CPU Hours Consumed</t>
+  </si>
+  <si>
+    <t>75% Activity</t>
+  </si>
+  <si>
+    <t>50% Activity</t>
+  </si>
+  <si>
+    <t>25% Activity</t>
+  </si>
+  <si>
+    <t>Below 25% Activity</t>
+  </si>
+  <si>
+    <t>Below 50% Activity</t>
+  </si>
+  <si>
+    <t>Below 75% Activity</t>
+  </si>
+  <si>
+    <t>Below 66% Activity</t>
+  </si>
+  <si>
+    <t>66% Activity</t>
   </si>
 </sst>
 </file>
@@ -365,15 +407,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$42:$B$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size =  1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -397,32 +431,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$44:$A$51</c:f>
+              <c:f>Sheet1!$A$65:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -430,29 +458,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$44:$B$51</c:f>
+              <c:f>Sheet1!$B$65:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.7788687599999999</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57796716999999997</c:v>
+                  <c:v>0.78690271000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7788687599999999</c:v>
+                  <c:v>1.8101944699999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78690271000000001</c:v>
+                  <c:v>2.2884784499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8101944699999999</c:v>
+                  <c:v>14.39237793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2884784499999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.39237793</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>3.0614639600000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -464,15 +489,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$42:$C$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size =  2 - 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 2 - 4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -496,32 +513,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$44:$A$51</c:f>
+              <c:f>Sheet1!$A$65:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -529,29 +540,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$44:$C$51</c:f>
+              <c:f>Sheet1!$C$65:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9472660000000001E-2</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1270230000000002E-2</c:v>
+                  <c:v>0.10968322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9472660000000001E-2</c:v>
+                  <c:v>0.15896929999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10968322</c:v>
+                  <c:v>7.4585899999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15896929999999998</c:v>
+                  <c:v>0.14111857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4585899999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14111857</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.15705616999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -563,15 +571,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$42:$D$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size = 5 - 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 5 - 8</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -589,32 +589,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$44:$A$51</c:f>
+              <c:f>Sheet1!$A$65:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -622,29 +616,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$44:$D$51</c:f>
+              <c:f>Sheet1!$D$65:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.30076459</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4253117900000001</c:v>
+                  <c:v>2.7895807499999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.30076459</c:v>
+                  <c:v>2.17039165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7895807499999998</c:v>
+                  <c:v>2.4397575499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.17039165</c:v>
+                  <c:v>3.49066382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4397575499999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.49066382</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>7.0719843999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -656,15 +647,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$42:$E$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size =  9 - 64</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 9 - 64</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -688,32 +671,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$44:$A$51</c:f>
+              <c:f>Sheet1!$A$65:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -721,32 +698,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$44:$E$51</c:f>
+              <c:f>Sheet1!$E$65:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.4778270300000003</c:v>
+                  <c:v>1.75227866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.73670316</c:v>
+                  <c:v>2.92848212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75227866</c:v>
+                  <c:v>12.96331022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.92848212</c:v>
+                  <c:v>26.6295793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.96331022</c:v>
+                  <c:v>14.44610288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.6295793</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.44610288</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>16.508642519999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -758,15 +729,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$42:$F$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size =  65 - 256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 65 - 256</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -790,32 +753,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$44:$A$51</c:f>
+              <c:f>Sheet1!$A$65:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -823,32 +780,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$44:$F$51</c:f>
+              <c:f>Sheet1!$F$65:$F$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.3168499999999996</c:v>
+                  <c:v>2.32909144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8231792000000002</c:v>
+                  <c:v>9.8265051299999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.32909144</c:v>
+                  <c:v>9.4624316299999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8265051299999993</c:v>
+                  <c:v>10.817596139999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4624316299999993</c:v>
+                  <c:v>13.088356510000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.817596139999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.088356510000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>18.676237489999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -864,11 +815,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137395200"/>
-        <c:axId val="137401856"/>
+        <c:axId val="181264384"/>
+        <c:axId val="181266688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137395200"/>
+        <c:axId val="181264384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,12 +893,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137401856"/>
+        <c:crossAx val="181266688"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137401856"/>
+        <c:axId val="181266688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137395200"/>
+        <c:crossAx val="181264384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1152,7 +1103,7 @@
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Ratio between Job Queue Time to Job Run Time by Job Sizes
-Ratio is Capped at 8; Job Above Line has Higher Queue Time than Run Time</a:t>
+Ratio is Capped at 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1161,8 +1112,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12010812050349046"/>
-          <c:y val="3.0364372469635626E-2"/>
+          <c:x val="0.21170111982634487"/>
+          <c:y val="3.5935710315644666E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1182,7 +1133,7 @@
           <c:yMode val="edge"/>
           <c:x val="7.6923178299988265E-2"/>
           <c:y val="0.19635627530364372"/>
-          <c:w val="0.54925848365079344"/>
+          <c:w val="0.73244445569341898"/>
           <c:h val="0.66599190283400811"/>
         </c:manualLayout>
       </c:layout>
@@ -1193,15 +1144,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$56:$B$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size =  1; Job Queue Time / Job Run Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -1225,32 +1168,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$79:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1258,32 +1195,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$58:$B$65</c:f>
+              <c:f>Sheet1!$B$79:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0.78690271000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0.362038894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78690271000000001</c:v>
+                  <c:v>0.22884784499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.362038894</c:v>
+                  <c:v>0.79957655166666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22884784499999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79957655166666664</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.12756099833333334</c:v>
                 </c:pt>
               </c:numCache>
@@ -1295,15 +1226,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$56:$C$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size =  2 – 4; Job Queue Time / Job Run Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 2 - 4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -1327,32 +1250,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$79:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1360,32 +1277,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$58:$C$65</c:f>
+              <c:f>Sheet1!$C$79:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.8945320000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3524276294097106</c:v>
+                  <c:v>0.10968322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8945320000000002E-2</c:v>
+                  <c:v>3.1793859999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10968322</c:v>
+                  <c:v>7.4585899999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1793859999999993E-2</c:v>
+                  <c:v>7.8399205555555549E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4585899999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8399205555555549E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>6.5440070833333334E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1397,15 +1308,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$56:$D$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size = 5 – 8; Job Queue Time / Job Run Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 5 - 8</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -1428,32 +1331,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$79:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1461,32 +1358,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$58:$D$65</c:f>
+              <c:f>Sheet1!$D$79:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.60152918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2.7895807499999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.60152918</c:v>
+                  <c:v>0.43407833000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7895807499999998</c:v>
+                  <c:v>0.24397575499999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43407833000000001</c:v>
+                  <c:v>0.19392576777777779</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24397575499999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19392576777777779</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.29466601666666664</c:v>
                 </c:pt>
               </c:numCache>
@@ -1498,15 +1389,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$56:$E$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size =  9 – 64; Job Queue Time / Job Run Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 9 - 64</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -1530,32 +1413,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$79:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1563,32 +1440,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$58:$E$65</c:f>
+              <c:f>Sheet1!$E$79:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>3.50455732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>2.92848212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.50455732</c:v>
+                  <c:v>2.5926620439999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.92848212</c:v>
+                  <c:v>2.6629579300000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5926620439999999</c:v>
+                  <c:v>0.80256127111111109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6629579300000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80256127111111109</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.68786010499999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -1600,15 +1471,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$56:$F$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Job Size =  65 – 256; Job Queue Time / Job Run Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Job Size = 65 - 256</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -1632,32 +1495,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$79:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1665,32 +1522,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$58:$F$65</c:f>
+              <c:f>Sheet1!$F$79:$F$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.65818288</c:v>
+                  <c:v>1.8924863259999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>1.0817596139999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8924863259999998</c:v>
+                  <c:v>0.72713091722222223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0817596139999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.72713091722222223</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.7781765620833333</c:v>
                 </c:pt>
               </c:numCache>
@@ -1706,11 +1557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137520256"/>
-        <c:axId val="137522560"/>
+        <c:axId val="181958144"/>
+        <c:axId val="181981184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137520256"/>
+        <c:axId val="181958144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1574,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="3C3C3C"/>
                     </a:solidFill>
@@ -1733,7 +1584,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Job Run Time (Hour)</a:t>
                 </a:r>
               </a:p>
@@ -1743,8 +1594,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.27125541821574811"/>
-              <c:y val="0.9251012145748988"/>
+              <c:x val="0.32482870034337497"/>
+              <c:y val="0.93067249469962809"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1772,7 +1623,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="3C3C3C"/>
                 </a:solidFill>
@@ -1784,14 +1635,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137522560"/>
+        <c:crossAx val="181981184"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137522560"/>
+        <c:axId val="181981184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1820,7 +1673,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="3C3C3C"/>
                     </a:solidFill>
@@ -1830,7 +1683,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Job Queue Time / Job Run Time</a:t>
                 </a:r>
               </a:p>
@@ -1840,8 +1693,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.1592471101751092E-2"/>
-              <c:y val="0.34615384615384615"/>
+              <c:x val="1.5355024627245474E-2"/>
+              <c:y val="0.3027017790809608"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1869,7 +1722,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="3C3C3C"/>
                 </a:solidFill>
@@ -1881,9 +1734,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137520256"/>
+        <c:crossAx val="181958144"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1901,9 +1755,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65317225082797059"/>
+          <c:x val="0.81043563740454583"/>
           <c:y val="0.34210526315789475"/>
-          <c:w val="0.33738236096486085"/>
+          <c:w val="0.18011903410861446"/>
           <c:h val="0.37651821862348178"/>
         </c:manualLayout>
       </c:layout>
@@ -1919,7 +1773,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="920" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="3C3C3C"/>
               </a:solidFill>
@@ -1941,7 +1795,9 @@
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9525">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:txPr>
@@ -2044,7 +1900,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$56:$C$57</c:f>
+              <c:f>Sheet1!$C$75:$C$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2078,16 +1934,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$58:$H$65</c:f>
+              <c:f>Sheet1!$H$77:$H$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -2111,7 +1961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$58:$C$65</c:f>
+              <c:f>Sheet1!$C$77:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2119,7 +1969,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3524276294097106</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.8945320000000002E-2</c:v>
@@ -2152,8 +2002,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172545920"/>
-        <c:axId val="172248448"/>
+        <c:axId val="182019968"/>
+        <c:axId val="182017408"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2163,7 +2013,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$56</c:f>
+              <c:f>Sheet1!$J$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2173,9 +2023,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFD320"/>
-            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000">
@@ -2199,7 +2046,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$77:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2232,16 +2079,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$58:$J$65</c:f>
+              <c:f>Sheet1!$J$77:$J$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5072336694432265</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>33.707020730256154</c:v>
                 </c:pt>
@@ -2273,11 +2114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142051200"/>
-        <c:axId val="141784576"/>
+        <c:axId val="182032256"/>
+        <c:axId val="182030336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172248448"/>
+        <c:axId val="182017408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2308,12 +2149,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172545920"/>
+        <c:crossAx val="182019968"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172545920"/>
+        <c:axId val="182019968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,11 +2191,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172248448"/>
+        <c:crossAx val="182017408"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141784576"/>
+        <c:axId val="182030336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2388,13 +2231,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142051200"/>
+        <c:crossAx val="182032256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142051200"/>
+        <c:axId val="182032256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +2247,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141784576"/>
+        <c:crossAx val="182030336"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2568,7 +2412,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$56:$D$57</c:f>
+              <c:f>Sheet1!$D$75:$D$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2599,7 +2443,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$77:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2632,7 +2476,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$58:$D$65</c:f>
+              <c:f>Sheet1!$D$77:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2640,7 +2484,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.60152918</c:v>
@@ -2673,8 +2517,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137667328"/>
-        <c:axId val="137669632"/>
+        <c:axId val="182398336"/>
+        <c:axId val="182400896"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2684,7 +2528,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$56</c:f>
+              <c:f>Sheet1!$K$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2721,16 +2565,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$58:$H$65</c:f>
+              <c:f>Sheet1!$H$77:$H$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -2754,16 +2592,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$58:$K$65</c:f>
+              <c:f>Sheet1!$K$77:$K$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4156712357163217</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>31.648226362293681</c:v>
                 </c:pt>
@@ -2795,11 +2627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177182592"/>
-        <c:axId val="164580736"/>
+        <c:axId val="182409088"/>
+        <c:axId val="182407168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137667328"/>
+        <c:axId val="182398336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,12 +2705,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137669632"/>
+        <c:crossAx val="182400896"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137669632"/>
+        <c:axId val="182400896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2972,13 +2804,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137667328"/>
+        <c:crossAx val="182398336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164580736"/>
+        <c:axId val="182407168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3008,13 +2840,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177182592"/>
+        <c:crossAx val="182409088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177182592"/>
+        <c:axId val="182409088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,7 +2856,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164580736"/>
+        <c:crossAx val="182407168"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3189,7 +3022,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$56:$E$57</c:f>
+              <c:f>Sheet1!$E$75:$E$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3223,7 +3056,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$77:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3256,15 +3089,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$58:$E$65</c:f>
+              <c:f>Sheet1!$E$77:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.50455732</c:v>
@@ -3297,8 +3130,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137690112"/>
-        <c:axId val="137758208"/>
+        <c:axId val="182440320"/>
+        <c:axId val="182442624"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3308,7 +3141,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$56</c:f>
+              <c:f>Sheet1!$L$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3345,16 +3178,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$58:$H$65</c:f>
+              <c:f>Sheet1!$H$77:$H$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -3378,16 +3205,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$58:$L$65</c:f>
+              <c:f>Sheet1!$L$77:$L$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4.6523560195505295E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.678449090597322</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>59.951987685878237</c:v>
                 </c:pt>
@@ -3419,11 +3240,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89255936"/>
-        <c:axId val="89244416"/>
+        <c:axId val="182200960"/>
+        <c:axId val="182199040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137690112"/>
+        <c:axId val="182440320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,12 +3318,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137758208"/>
+        <c:crossAx val="182442624"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137758208"/>
+        <c:axId val="182442624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3595,13 +3416,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137690112"/>
+        <c:crossAx val="182440320"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89244416"/>
+        <c:axId val="182199040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3631,13 +3452,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89255936"/>
+        <c:crossAx val="182200960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89255936"/>
+        <c:axId val="182200960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +3468,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89244416"/>
+        <c:crossAx val="182199040"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3812,7 +3634,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$56:$F$57</c:f>
+              <c:f>Sheet1!$F$75:$F$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3846,7 +3668,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$77:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3879,21 +3701,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$58:$F$65</c:f>
+              <c:f>Sheet1!$F$77:$F$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.65818288</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.8924863259999998</c:v>
@@ -3920,8 +3742,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137790976"/>
-        <c:axId val="137818112"/>
+        <c:axId val="182244096"/>
+        <c:axId val="182246400"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3931,7 +3753,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$56</c:f>
+              <c:f>Sheet1!$M$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3968,16 +3790,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$58:$H$65</c:f>
+              <c:f>Sheet1!$H$77:$H$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -4001,16 +3817,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$58:$M$65</c:f>
+              <c:f>Sheet1!$M$77:$M$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.4987054789727802E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.593543722156136</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>61.484500734728151</c:v>
                 </c:pt>
@@ -4042,11 +3852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90565248"/>
-        <c:axId val="89259008"/>
+        <c:axId val="182250112"/>
+        <c:axId val="182248576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137790976"/>
+        <c:axId val="182244096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4120,12 +3930,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137818112"/>
+        <c:crossAx val="182246400"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137818112"/>
+        <c:axId val="182246400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4218,12 +4028,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137790976"/>
+        <c:crossAx val="182244096"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89259008"/>
+        <c:axId val="182248576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4234,13 +4044,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90565248"/>
+        <c:crossAx val="182250112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90565248"/>
+        <c:axId val="182250112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,7 +4060,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89259008"/>
+        <c:crossAx val="182248576"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4521,8 +4332,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="137875456"/>
-        <c:axId val="137877376"/>
+        <c:axId val="182301824"/>
+        <c:axId val="182303744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4641,11 +4452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137965568"/>
-        <c:axId val="137967104"/>
+        <c:axId val="182318208"/>
+        <c:axId val="182319744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137875456"/>
+        <c:axId val="182301824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4719,7 +4530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137877376"/>
+        <c:crossAx val="182303744"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4729,7 +4540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137877376"/>
+        <c:axId val="182303744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000000"/>
@@ -4814,12 +4625,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137875456"/>
+        <c:crossAx val="182301824"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="137965568"/>
+        <c:axId val="182318208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4836,7 +4647,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="137967104"/>
+        <c:crossAx val="182319744"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4845,7 +4656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137967104"/>
+        <c:axId val="182319744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4920,7 +4731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137965568"/>
+        <c:crossAx val="182318208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5083,7 +4894,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$56:$B$57</c:f>
+              <c:f>Sheet1!$B$75:$B$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5109,7 +4920,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$58:$A$65</c:f>
+              <c:f>Sheet1!$A$77:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5142,7 +4953,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$58:$B$65</c:f>
+              <c:f>Sheet1!$B$77:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5150,10 +4961,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.78690271000000001</c:v>
@@ -5183,8 +4994,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90978944"/>
-        <c:axId val="90993792"/>
+        <c:axId val="182467584"/>
+        <c:axId val="182486528"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5194,7 +5005,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$56</c:f>
+              <c:f>Sheet1!$I$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5227,16 +5038,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$58:$H$65</c:f>
+              <c:f>Sheet1!$H$77:$H$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.777778E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3333333000000006E-3</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -5260,16 +5065,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$58:$I$65</c:f>
+              <c:f>Sheet1!$I$77:$I$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3829356953773795</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>66.800643426202313</c:v>
                 </c:pt>
@@ -5301,11 +5100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172301696"/>
-        <c:axId val="172298240"/>
+        <c:axId val="182502912"/>
+        <c:axId val="182488448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90978944"/>
+        <c:axId val="182467584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5380,12 +5179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90993792"/>
+        <c:crossAx val="182486528"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90993792"/>
+        <c:axId val="182486528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5478,13 +5277,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90978944"/>
+        <c:crossAx val="182467584"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172298240"/>
+        <c:axId val="182488448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5520,12 +5319,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172301696"/>
+        <c:crossAx val="182502912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172301696"/>
+        <c:axId val="182502912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,7 +5334,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172298240"/>
+        <c:crossAx val="182488448"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5624,20 +5424,761 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="3C3C3C"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Job Activity by Job Sizes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32518375382777609"/>
+          <c:y val="3.5935636140639916E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9397975427393056E-2"/>
+          <c:y val="0.15546012237835774"/>
+          <c:w val="0.70593552530040449"/>
+          <c:h val="0.70688807450013469"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Job Size = 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$105:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$105:$B$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.963217883853333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.962755801069882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.41934245821912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.37703980756055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.568628023845726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.686997996393686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Job Size = 2 - 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF420E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF420E"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$105:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$105:$C$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>94.433582274106456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.11580800509897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.918584105549925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.259662871106187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.222106567158605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.349853852660061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Job Size = 5 - 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$105:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$105:$D$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27.765983559239135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.388143332214256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.731198016219935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.387418804637392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.757301080893271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.239997584447821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Job Size = 9 - 64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579D1C"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="579D1C"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$105:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$105:$E$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.199739707163943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.455124128196363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.834513454168917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.30034084775852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.476616302956138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.246616294660278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Job Size = 65 - 256</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$105:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$105:$F$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17.673518534275441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2365910142971508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.572332840822568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.036285903277211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.899490422435328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.237385045070432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="185943168"/>
+        <c:axId val="186048512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="185943168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="3C3C3C"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Job Run Time (Hour)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32482870034337497"/>
+              <c:y val="0.93067249469962809"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="3C3C3C"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186048512"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="186048512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="3C3C3C"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Job</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Activity (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.8891133903529146E-3"/>
+              <c:y val="0.37426995330156504"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="3C3C3C"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185943168"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+        <c:minorUnit val="25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+    <c:pageSetup firstPageNumber="0" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>220756</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>121583</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1408582</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>132790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>716056</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>150159</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1489263</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>4483</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5660,16 +6201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>954741</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>118222</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>999565</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>963706</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>127748</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>138954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5693,15 +6234,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>950259</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>52108</xdr:rowOff>
+      <xdr:colOff>445997</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>63315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1455084</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>118783</xdr:rowOff>
+      <xdr:colOff>536204</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>129990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5724,16 +6265,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200585</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>58831</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>973793</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>70038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22414</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>136713</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5757,15 +6298,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>862854</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:colOff>1053356</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>118784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
+      <xdr:colOff>22414</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>109259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5789,15 +6330,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>950257</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>1121</xdr:rowOff>
+      <xdr:colOff>445995</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>12328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1467970</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>138953</xdr:rowOff>
+      <xdr:colOff>549090</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>150160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5821,15 +6362,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>303680</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>103653</xdr:rowOff>
+      <xdr:colOff>1625976</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5839,9 +6380,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16608239" y="14850594"/>
-          <a:ext cx="4055408" cy="8405"/>
+        <a:xfrm flipV="1">
+          <a:off x="19039917" y="25605440"/>
+          <a:ext cx="5971613" cy="14007"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5879,15 +6420,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>150719</xdr:rowOff>
+      <xdr:colOff>268943</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>5044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1232649</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5911,15 +6452,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>829235</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:colOff>324973</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>829236</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2252385</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>22414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5930,7 +6471,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="9424147" y="12001501"/>
+          <a:off x="9614649" y="23308237"/>
           <a:ext cx="4818530" cy="3070412"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5969,15 +6510,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>851646</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>1042148</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>515470</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>87967</xdr:rowOff>
+      <xdr:colOff>11208</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>99173</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6001,15 +6542,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1467970</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>99171</xdr:rowOff>
+      <xdr:colOff>1658472</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>110377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6020,7 +6561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1467970" y="19709465"/>
+          <a:off x="1658472" y="31016201"/>
           <a:ext cx="4784912" cy="1681"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6058,16 +6599,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1131797</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1580030</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>147357</xdr:rowOff>
+      <xdr:colOff>661149</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>1681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6078,7 +6619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10230971" y="19587882"/>
+          <a:off x="10421473" y="30894618"/>
           <a:ext cx="4762500" cy="12887"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6112,6 +6653,38 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>818030</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1143001</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>127747</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6748,22 +7321,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="25.42578125" customWidth="1"/>
@@ -7492,7 +8065,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -7500,929 +8073,2473 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" t="s">
+        <v>17</v>
+      </c>
+      <c r="U28" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W28" t="s">
+        <v>15</v>
+      </c>
+      <c r="X28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>65858.51966739136</v>
+      </c>
+      <c r="C29">
+        <v>1.9049690861990893</v>
+      </c>
+      <c r="D29">
+        <v>1.9049690861990893</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>4319.4367141304338</v>
+      </c>
+      <c r="C30">
+        <v>0.12494045495963352</v>
+      </c>
+      <c r="D30">
+        <v>2.0299095411587227</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>26536.493617391279</v>
+      </c>
+      <c r="C31">
+        <v>0.7675726732479129</v>
+      </c>
+      <c r="D31">
+        <v>2.7974822144066356</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="G31">
+        <v>7.9704081521739099</v>
+      </c>
+      <c r="H31">
+        <v>4.2108287292817674E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.48983695652173942</v>
+      </c>
+      <c r="J31">
+        <v>73.452868478260854</v>
+      </c>
+      <c r="K31">
+        <v>89.391817934782608</v>
+      </c>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31">
+        <v>1.210231902026841E-2</v>
+      </c>
+      <c r="O31">
+        <v>9.5896159318480828E-4</v>
+      </c>
+      <c r="P31">
+        <v>1.8458993248479268E-3</v>
+      </c>
+      <c r="Q31">
+        <v>1.1542474349996865E-2</v>
+      </c>
+      <c r="R31">
+        <v>1.0074013910132977E-2</v>
+      </c>
+      <c r="T31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31">
+        <v>1.210231902026841E-2</v>
+      </c>
+      <c r="V31">
+        <v>9.5896159318480828E-4</v>
+      </c>
+      <c r="W31">
+        <v>1.8458993248479268E-3</v>
+      </c>
+      <c r="X31">
+        <v>1.1542474349996865E-2</v>
+      </c>
+      <c r="Y31">
+        <v>1.0074013910132977E-2</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>636370.21188858675</v>
+      </c>
+      <c r="C32">
+        <v>18.407118580072684</v>
+      </c>
+      <c r="D32">
+        <v>21.204600794479319</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>6020.0970875000048</v>
+      </c>
+      <c r="H32">
+        <v>14.379688397790044</v>
+      </c>
+      <c r="I32">
+        <v>63.502464673913025</v>
+      </c>
+      <c r="J32">
+        <v>6753.8721836956565</v>
+      </c>
+      <c r="K32">
+        <v>9555.1356836956529</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32">
+        <v>9.1409541512679198</v>
+      </c>
+      <c r="O32">
+        <v>0.32747874069430272</v>
+      </c>
+      <c r="P32">
+        <v>0.23930239461740793</v>
+      </c>
+      <c r="Q32">
+        <v>1.0613118052229158</v>
+      </c>
+      <c r="R32">
+        <v>1.0768163352599578</v>
+      </c>
+      <c r="T32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32">
+        <v>9.1530564702881883</v>
+      </c>
+      <c r="V32">
+        <v>0.32843770228748753</v>
+      </c>
+      <c r="W32">
+        <v>0.24114829394225587</v>
+      </c>
+      <c r="X32">
+        <v>1.0728542795729126</v>
+      </c>
+      <c r="Y32">
+        <v>1.0868903491700908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>887350.55095434817</v>
+      </c>
+      <c r="C33">
+        <v>25.666768350196023</v>
+      </c>
+      <c r="D33">
+        <v>46.871369144675342</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>12403.447379347817</v>
+      </c>
+      <c r="H33">
+        <v>16.159269613259671</v>
+      </c>
+      <c r="I33">
+        <v>151.54070652173922</v>
+      </c>
+      <c r="J33">
+        <v>6161.9337880434787</v>
+      </c>
+      <c r="K33">
+        <v>10937.519356521741</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>18.833474305206966</v>
+      </c>
+      <c r="O33">
+        <v>0.36800639326115492</v>
+      </c>
+      <c r="P33">
+        <v>0.57106529862869104</v>
+      </c>
+      <c r="Q33">
+        <v>0.96829387562884295</v>
+      </c>
+      <c r="R33">
+        <v>1.2326041094760591</v>
+      </c>
+      <c r="T33" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33">
+        <v>27.986530775495154</v>
+      </c>
+      <c r="V33">
+        <v>0.69644409554864239</v>
+      </c>
+      <c r="W33">
+        <v>0.81221359257094694</v>
+      </c>
+      <c r="X33">
+        <v>2.0411481552017556</v>
+      </c>
+      <c r="Y33">
+        <v>2.3194944586461501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>471811.8942652173</v>
+      </c>
+      <c r="C34">
+        <v>13.647240746003137</v>
+      </c>
+      <c r="D34">
+        <v>60.518609890678476</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>34537.464498369569</v>
+      </c>
+      <c r="H34">
+        <v>152.08350497237572</v>
+      </c>
+      <c r="I34">
+        <v>838.21121576086932</v>
+      </c>
+      <c r="J34">
+        <v>52774.629335326092</v>
+      </c>
+      <c r="K34">
+        <v>72231.492197826054</v>
+      </c>
+      <c r="M34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34">
+        <v>52.441908310110698</v>
+      </c>
+      <c r="O34">
+        <v>3.4635044453663908</v>
+      </c>
+      <c r="P34">
+        <v>3.1587112745427977</v>
+      </c>
+      <c r="Q34">
+        <v>8.2930703463797038</v>
+      </c>
+      <c r="R34">
+        <v>8.140130427612954</v>
+      </c>
+      <c r="T34" t="s">
+        <v>28</v>
+      </c>
+      <c r="U34">
+        <v>80.428439085605845</v>
+      </c>
+      <c r="V34">
+        <v>4.1599485409150336</v>
+      </c>
+      <c r="W34">
+        <v>3.9709248671137445</v>
+      </c>
+      <c r="X34">
+        <v>10.334218501581459</v>
+      </c>
+      <c r="Y34">
+        <v>10.459624886259103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>525549.80576902162</v>
+      </c>
+      <c r="C35">
+        <v>15.20161914212636</v>
+      </c>
+      <c r="D35">
+        <v>75.720229032804838</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>3563.9140956521769</v>
+      </c>
+      <c r="H35">
+        <v>218.54794088397799</v>
+      </c>
+      <c r="I35">
+        <v>1180.7711923913041</v>
+      </c>
+      <c r="J35">
+        <v>62293.716241847804</v>
+      </c>
+      <c r="K35">
+        <v>103927.28266902175</v>
+      </c>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <v>5.4114700932410829</v>
+      </c>
+      <c r="O35">
+        <v>4.9771457129083068</v>
+      </c>
+      <c r="P35">
+        <v>4.4496127085059118</v>
+      </c>
+      <c r="Q35">
+        <v>9.7889114037842369</v>
+      </c>
+      <c r="R35">
+        <v>11.712088594214281</v>
+      </c>
+      <c r="T35" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35">
+        <v>85.839909178846924</v>
+      </c>
+      <c r="V35">
+        <v>9.1370942538233404</v>
+      </c>
+      <c r="W35">
+        <v>8.4205375756196563</v>
+      </c>
+      <c r="X35">
+        <v>20.123129905365694</v>
+      </c>
+      <c r="Y35">
+        <v>22.171713480473386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>786360.20338804356</v>
+      </c>
+      <c r="C36">
+        <v>22.745605058188918</v>
+      </c>
+      <c r="D36">
+        <v>98.465834090993752</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36">
+        <v>948.64952717391327</v>
+      </c>
+      <c r="H36">
+        <v>286.57173204419894</v>
+      </c>
+      <c r="I36">
+        <v>1957.5059331521747</v>
+      </c>
+      <c r="J36">
+        <v>87581.703620108688</v>
+      </c>
+      <c r="K36">
+        <v>116584.07416249998</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36">
+        <v>1.4404355457197144</v>
+      </c>
+      <c r="O36">
+        <v>6.5262992724405819</v>
+      </c>
+      <c r="P36">
+        <v>7.3766563185622882</v>
+      </c>
+      <c r="Q36">
+        <v>13.762696930798848</v>
+      </c>
+      <c r="R36">
+        <v>13.138446134632305</v>
+      </c>
+      <c r="T36" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36">
+        <v>87.280344724566632</v>
+      </c>
+      <c r="V36">
+        <v>15.663393526263922</v>
+      </c>
+      <c r="W36">
+        <v>15.797193894181945</v>
+      </c>
+      <c r="X36">
+        <v>33.88582683616454</v>
+      </c>
+      <c r="Y36">
+        <v>35.31015961510569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>52975.160941304326</v>
+      </c>
+      <c r="C37">
+        <v>1.5323157040162401</v>
+      </c>
+      <c r="D37">
+        <v>99.998149795009994</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>8376.9766711956509</v>
+      </c>
+      <c r="H37">
+        <v>3703.2453436464116</v>
+      </c>
+      <c r="I37">
+        <v>22344.472267934791</v>
+      </c>
+      <c r="J37">
+        <v>420730.90385108703</v>
+      </c>
+      <c r="K37">
+        <v>574025.65506684768</v>
+      </c>
+      <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37">
+        <v>12.719655275433354</v>
+      </c>
+      <c r="O37">
+        <v>84.336606473736069</v>
+      </c>
+      <c r="P37">
+        <v>84.202806105818055</v>
+      </c>
+      <c r="Q37">
+        <v>66.11417316383546</v>
+      </c>
+      <c r="R37">
+        <v>64.68984038489431</v>
+      </c>
+      <c r="T37" t="s">
+        <v>34</v>
+      </c>
+      <c r="U37">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="V37">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="W37">
+        <v>100</v>
+      </c>
+      <c r="X37">
+        <v>100</v>
+      </c>
+      <c r="Y37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>63.96521739130435</v>
+      </c>
+      <c r="C38">
+        <v>1.8502049899972444E-3</v>
+      </c>
+      <c r="D38">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="H32">
+      <c r="H51">
         <v>4.4778270300000003</v>
       </c>
-      <c r="I32">
+      <c r="I51">
         <v>1.5200330509</v>
       </c>
-      <c r="J32">
+      <c r="J51">
         <v>5.3168499999999996</v>
       </c>
-      <c r="K32">
+      <c r="K51">
         <v>3.4611983649</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>22</v>
       </c>
-      <c r="B33">
+      <c r="B52">
         <v>0.57796716999999997</v>
       </c>
-      <c r="C33">
+      <c r="C52">
         <v>2.7633998600000001E-2</v>
       </c>
-      <c r="D33">
+      <c r="D52">
         <v>6.1270230000000002E-2</v>
       </c>
-      <c r="E33">
+      <c r="E52">
         <v>5.8912273000000001E-2</v>
       </c>
-      <c r="F33">
+      <c r="F52">
         <v>1.4253117900000001</v>
       </c>
-      <c r="G33">
+      <c r="G52">
         <v>0.23932914260000002</v>
       </c>
-      <c r="H33">
+      <c r="H52">
         <v>1.73670316</v>
       </c>
-      <c r="I33">
+      <c r="I52">
         <v>2.5979487700000001E-2</v>
       </c>
-      <c r="J33">
+      <c r="J52">
         <v>4.8231792000000002</v>
       </c>
-      <c r="K33">
+      <c r="K52">
         <v>0.1109287615</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B34">
+      <c r="B53">
         <v>5.7788687599999999</v>
       </c>
-      <c r="C34">
+      <c r="C53">
         <v>2.3293439900000001E-2</v>
       </c>
-      <c r="D34">
+      <c r="D53">
         <v>2.9472660000000001E-2</v>
       </c>
-      <c r="E34">
+      <c r="E53">
         <v>1.2165466500000001E-2</v>
       </c>
-      <c r="F34">
+      <c r="F53">
         <v>1.30076459</v>
       </c>
-      <c r="G34">
+      <c r="G53">
         <v>8.3990513400000008E-2</v>
       </c>
-      <c r="H34">
+      <c r="H53">
         <v>1.75227866</v>
       </c>
-      <c r="I34">
+      <c r="I53">
         <v>1.5649690000000001E-2</v>
       </c>
-      <c r="J34">
+      <c r="J53">
         <v>2.32909144</v>
       </c>
-      <c r="K34">
+      <c r="K53">
         <v>3.3919703400000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>26</v>
       </c>
-      <c r="B35">
+      <c r="B54">
         <v>0.78690271000000001</v>
       </c>
-      <c r="C35">
+      <c r="C54">
         <v>2.5290442600000001E-2</v>
       </c>
-      <c r="D35">
+      <c r="D54">
         <v>0.10968322</v>
       </c>
-      <c r="E35">
+      <c r="E54">
         <v>4.27316368E-2</v>
       </c>
-      <c r="F35">
+      <c r="F54">
         <v>2.7895807499999998</v>
       </c>
-      <c r="G35">
+      <c r="G54">
         <v>9.0071240400000002E-2</v>
       </c>
-      <c r="H35">
+      <c r="H54">
         <v>2.92848212</v>
       </c>
-      <c r="I35">
+      <c r="I54">
         <v>5.8994579000000005E-2</v>
       </c>
-      <c r="J35">
+      <c r="J54">
         <v>9.8265051299999993</v>
       </c>
-      <c r="K35">
+      <c r="K54">
         <v>0.13726363830000002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>28</v>
       </c>
-      <c r="B36">
+      <c r="B55">
         <v>1.8101944699999999</v>
       </c>
-      <c r="C36">
+      <c r="C55">
         <v>6.2384635100000002E-2</v>
       </c>
-      <c r="D36">
+      <c r="D55">
         <v>0.15896929999999998</v>
       </c>
-      <c r="E36">
+      <c r="E55">
         <v>3.6091805300000002E-2</v>
       </c>
-      <c r="F36">
+      <c r="F55">
         <v>2.17039165</v>
       </c>
-      <c r="G36">
+      <c r="G55">
         <v>8.7915430000000003E-2</v>
       </c>
-      <c r="H36">
+      <c r="H55">
         <v>12.96331022</v>
       </c>
-      <c r="I36">
+      <c r="I55">
         <v>9.9476564500000003E-2</v>
       </c>
-      <c r="J36">
+      <c r="J55">
         <v>9.4624316299999993</v>
       </c>
-      <c r="K36">
+      <c r="K55">
         <v>0.1247210284</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>30</v>
       </c>
-      <c r="B37">
+      <c r="B56">
         <v>2.2884784499999999</v>
       </c>
-      <c r="C37">
+      <c r="C56">
         <v>0.1062634657</v>
       </c>
-      <c r="D37">
+      <c r="D56">
         <v>7.4585899999999997E-2</v>
       </c>
-      <c r="E37">
+      <c r="E56">
         <v>1.4668931900000001E-2</v>
       </c>
-      <c r="F37">
+      <c r="F56">
         <v>2.4397575499999999</v>
       </c>
-      <c r="G37">
+      <c r="G56">
         <v>0.19119697060000002</v>
       </c>
-      <c r="H37">
+      <c r="H56">
         <v>26.6295793</v>
       </c>
-      <c r="I37">
+      <c r="I56">
         <v>0.2117331502</v>
       </c>
-      <c r="J37">
+      <c r="J56">
         <v>10.817596139999999</v>
       </c>
-      <c r="K37">
+      <c r="K56">
         <v>0.1520317403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>14.39237793</v>
-      </c>
-      <c r="C38">
-        <v>0.58564412760000006</v>
-      </c>
-      <c r="D38">
-        <v>0.14111857</v>
-      </c>
-      <c r="E38">
-        <v>3.9267155099999999E-2</v>
-      </c>
-      <c r="F38">
-        <v>3.49066382</v>
-      </c>
-      <c r="G38">
-        <v>0.2298835051</v>
-      </c>
-      <c r="H38">
-        <v>14.44610288</v>
-      </c>
-      <c r="I38">
-        <v>0.1667807781</v>
-      </c>
-      <c r="J38">
-        <v>13.088356510000001</v>
-      </c>
-      <c r="K38">
-        <v>0.26006195869999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39">
-        <v>3.0614639600000002</v>
-      </c>
-      <c r="C39">
-        <v>6.0040320300000005E-2</v>
-      </c>
-      <c r="D39">
-        <v>0.15705616999999999</v>
-      </c>
-      <c r="E39">
-        <v>3.9130703699999998E-2</v>
-      </c>
-      <c r="F39">
-        <v>7.0719843999999998</v>
-      </c>
-      <c r="G39">
-        <v>0.2526039222</v>
-      </c>
-      <c r="H39">
-        <v>16.508642519999999</v>
-      </c>
-      <c r="I39">
-        <v>0.19750559840000001</v>
-      </c>
-      <c r="J39">
-        <v>18.676237489999998</v>
-      </c>
-      <c r="K39">
-        <v>0.34498762120000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2.777778E-4</v>
-      </c>
-      <c r="E44">
-        <v>4.4778270300000003</v>
-      </c>
-      <c r="F44">
-        <v>5.3168499999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>8.3333333000000006E-3</v>
-      </c>
-      <c r="B45">
-        <v>0.57796716999999997</v>
-      </c>
-      <c r="C45">
-        <v>6.1270230000000002E-2</v>
-      </c>
-      <c r="D45">
-        <v>1.4253117900000001</v>
-      </c>
-      <c r="E45">
-        <v>1.73670316</v>
-      </c>
-      <c r="F45">
-        <v>4.8231792000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>0.5</v>
-      </c>
-      <c r="B46">
-        <v>5.7788687599999999</v>
-      </c>
-      <c r="C46">
-        <v>2.9472660000000001E-2</v>
-      </c>
-      <c r="D46">
-        <v>1.30076459</v>
-      </c>
-      <c r="E46">
-        <v>1.75227866</v>
-      </c>
-      <c r="F46">
-        <v>2.32909144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>0.78690271000000001</v>
-      </c>
-      <c r="C47">
-        <v>0.10968322</v>
-      </c>
-      <c r="D47">
-        <v>2.7895807499999998</v>
-      </c>
-      <c r="E47">
-        <v>2.92848212</v>
-      </c>
-      <c r="F47">
-        <v>9.8265051299999993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>1.8101944699999999</v>
-      </c>
-      <c r="C48">
-        <v>0.15896929999999998</v>
-      </c>
-      <c r="D48">
-        <v>2.17039165</v>
-      </c>
-      <c r="E48">
-        <v>12.96331022</v>
-      </c>
-      <c r="F48">
-        <v>9.4624316299999993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>10</v>
-      </c>
-      <c r="B49">
-        <v>2.2884784499999999</v>
-      </c>
-      <c r="C49">
-        <v>7.4585899999999997E-2</v>
-      </c>
-      <c r="D49">
-        <v>2.4397575499999999</v>
-      </c>
-      <c r="E49">
-        <v>26.6295793</v>
-      </c>
-      <c r="F49">
-        <v>10.817596139999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>18</v>
-      </c>
-      <c r="B50">
-        <v>14.39237793</v>
-      </c>
-      <c r="C50">
-        <v>0.14111857</v>
-      </c>
-      <c r="D50">
-        <v>3.49066382</v>
-      </c>
-      <c r="E50">
-        <v>14.44610288</v>
-      </c>
-      <c r="F50">
-        <v>13.088356510000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>24</v>
-      </c>
-      <c r="B51">
-        <v>3.0614639600000002</v>
-      </c>
-      <c r="C51">
-        <v>0.15705616999999999</v>
-      </c>
-      <c r="D51">
-        <v>7.0719843999999998</v>
-      </c>
-      <c r="E51">
-        <v>16.508642519999999</v>
-      </c>
-      <c r="F51">
-        <v>18.676237489999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s">
-        <v>46</v>
-      </c>
-      <c r="J56" t="s">
-        <v>47</v>
-      </c>
-      <c r="K56" t="s">
-        <v>48</v>
-      </c>
-      <c r="L56" t="s">
-        <v>49</v>
-      </c>
-      <c r="M56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57">
+        <v>14.39237793</v>
+      </c>
+      <c r="C57">
+        <v>0.58564412760000006</v>
+      </c>
+      <c r="D57">
+        <v>0.14111857</v>
+      </c>
+      <c r="E57">
+        <v>3.9267155099999999E-2</v>
+      </c>
+      <c r="F57">
+        <v>3.49066382</v>
+      </c>
+      <c r="G57">
+        <v>0.2298835051</v>
+      </c>
+      <c r="H57">
+        <v>14.44610288</v>
+      </c>
+      <c r="I57">
+        <v>0.1667807781</v>
+      </c>
+      <c r="J57">
+        <v>13.088356510000001</v>
+      </c>
+      <c r="K57">
+        <v>0.26006195869999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58">
+        <v>3.0614639600000002</v>
+      </c>
+      <c r="C58">
+        <v>6.0040320300000005E-2</v>
+      </c>
+      <c r="D58">
+        <v>0.15705616999999999</v>
+      </c>
+      <c r="E58">
+        <v>3.9130703699999998E-2</v>
+      </c>
+      <c r="F58">
+        <v>7.0719843999999998</v>
+      </c>
+      <c r="G58">
+        <v>0.2526039222</v>
+      </c>
+      <c r="H58">
+        <v>16.508642519999999</v>
+      </c>
+      <c r="I58">
+        <v>0.19750559840000001</v>
+      </c>
+      <c r="J58">
+        <v>18.676237489999998</v>
+      </c>
+      <c r="K58">
+        <v>0.34498762120000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>39</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>15</v>
+      </c>
+      <c r="L62" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2.777778E-4</v>
+      </c>
+      <c r="E63">
+        <v>4.4778270300000003</v>
+      </c>
+      <c r="F63">
+        <v>5.3168499999999996</v>
+      </c>
+      <c r="H63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>8.3333333000000006E-3</v>
+      </c>
+      <c r="B64">
+        <v>0.57796716999999997</v>
+      </c>
+      <c r="C64">
+        <v>6.1270230000000002E-2</v>
+      </c>
+      <c r="D64">
+        <v>1.4253117900000001</v>
+      </c>
+      <c r="E64">
+        <v>1.73670316</v>
+      </c>
+      <c r="F64">
+        <v>4.8231792000000002</v>
+      </c>
+      <c r="H64">
+        <v>0.5</v>
+      </c>
+      <c r="I64">
+        <v>7.963217883853333</v>
+      </c>
+      <c r="J64">
+        <v>94.433582274106456</v>
+      </c>
+      <c r="K64">
+        <v>27.765983559239135</v>
+      </c>
+      <c r="L64">
+        <v>22.199739707163943</v>
+      </c>
+      <c r="M64">
+        <v>17.673518534275441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0.5</v>
+      </c>
+      <c r="B65">
+        <v>5.7788687599999999</v>
+      </c>
+      <c r="C65">
+        <v>2.9472660000000001E-2</v>
+      </c>
+      <c r="D65">
+        <v>1.30076459</v>
+      </c>
+      <c r="E65">
+        <v>1.75227866</v>
+      </c>
+      <c r="F65">
+        <v>2.32909144</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>55.962755801069882</v>
+      </c>
+      <c r="J65">
+        <v>90.11580800509897</v>
+      </c>
+      <c r="K65">
+        <v>26.388143332214256</v>
+      </c>
+      <c r="L65">
+        <v>25.455124128196363</v>
+      </c>
+      <c r="M65">
+        <v>9.2365910142971508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>0.78690271000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.10968322</v>
+      </c>
+      <c r="D66">
+        <v>2.7895807499999998</v>
+      </c>
+      <c r="E66">
+        <v>2.92848212</v>
+      </c>
+      <c r="F66">
+        <v>9.8265051299999993</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>73.41934245821912</v>
+      </c>
+      <c r="J66">
+        <v>96.918584105549925</v>
+      </c>
+      <c r="K66">
+        <v>69.731198016219935</v>
+      </c>
+      <c r="L66">
+        <v>27.834513454168917</v>
+      </c>
+      <c r="M66">
+        <v>34.572332840822568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>1.8101944699999999</v>
+      </c>
+      <c r="C67">
+        <v>0.15896929999999998</v>
+      </c>
+      <c r="D67">
+        <v>2.17039165</v>
+      </c>
+      <c r="E67">
+        <v>12.96331022</v>
+      </c>
+      <c r="F67">
+        <v>9.4624316299999993</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>81.37703980756055</v>
+      </c>
+      <c r="J67">
+        <v>99.259662871106187</v>
+      </c>
+      <c r="K67">
+        <v>80.387418804637392</v>
+      </c>
+      <c r="L67">
+        <v>27.30034084775852</v>
+      </c>
+      <c r="M67">
+        <v>48.036285903277211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>2.2884784499999999</v>
+      </c>
+      <c r="C68">
+        <v>7.4585899999999997E-2</v>
+      </c>
+      <c r="D68">
+        <v>2.4397575499999999</v>
+      </c>
+      <c r="E68">
+        <v>26.6295793</v>
+      </c>
+      <c r="F68">
+        <v>10.817596139999999</v>
+      </c>
+      <c r="H68">
+        <v>18</v>
+      </c>
+      <c r="I68">
+        <v>55.568628023845726</v>
+      </c>
+      <c r="J68">
+        <v>99.222106567158605</v>
+      </c>
+      <c r="K68">
+        <v>83.757301080893271</v>
+      </c>
+      <c r="L68">
+        <v>55.476616302956138</v>
+      </c>
+      <c r="M68">
+        <v>57.899490422435328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>18</v>
+      </c>
+      <c r="B69">
+        <v>14.39237793</v>
+      </c>
+      <c r="C69">
+        <v>0.14111857</v>
+      </c>
+      <c r="D69">
+        <v>3.49066382</v>
+      </c>
+      <c r="E69">
+        <v>14.44610288</v>
+      </c>
+      <c r="F69">
+        <v>13.088356510000001</v>
+      </c>
+      <c r="H69">
+        <v>24</v>
+      </c>
+      <c r="I69">
+        <v>88.686997996393686</v>
+      </c>
+      <c r="J69">
+        <v>99.349853852660061</v>
+      </c>
+      <c r="K69">
+        <v>77.239997584447821</v>
+      </c>
+      <c r="L69">
+        <v>59.246616294660278</v>
+      </c>
+      <c r="M69">
+        <v>56.237385045070432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>24</v>
+      </c>
+      <c r="B70">
+        <v>3.0614639600000002</v>
+      </c>
+      <c r="C70">
+        <v>0.15705616999999999</v>
+      </c>
+      <c r="D70">
+        <v>7.0719843999999998</v>
+      </c>
+      <c r="E70">
+        <v>16.508642519999999</v>
+      </c>
+      <c r="F70">
+        <v>18.676237489999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" t="s">
+        <v>48</v>
+      </c>
+      <c r="L75" t="s">
+        <v>49</v>
+      </c>
+      <c r="M75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>2.777778E-4</v>
       </c>
-      <c r="B58">
-        <f t="shared" ref="B58:B65" si="0">MIN(B44/$A44,8)</f>
+      <c r="B77">
+        <f>MIN(B63/$A63,4)</f>
         <v>0</v>
       </c>
-      <c r="C58">
-        <f t="shared" ref="C58:C65" si="1">MIN(C44/$A44,8)</f>
+      <c r="C77">
+        <f t="shared" ref="C77:F77" si="0">MIN(C63/$A63,4)</f>
         <v>0</v>
       </c>
-      <c r="D58">
-        <f t="shared" ref="D58:D65" si="2">MIN(D44/$A44,8)</f>
+      <c r="D77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E58">
-        <f t="shared" ref="E58:E65" si="3">MIN(E44/$A44,8)</f>
-        <v>8</v>
-      </c>
-      <c r="F58">
-        <f t="shared" ref="F58:F65" si="4">MIN(F44/$A44,8)</f>
-        <v>8</v>
-      </c>
-      <c r="H58">
-        <v>2.777778E-4</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>4.6523560195505295E-3</v>
-      </c>
-      <c r="M58">
-        <v>3.4987054789727802E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="E77">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>8.3333333000000006E-3</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C59">
+      <c r="B78">
+        <f t="shared" ref="B78:F78" si="1">MIN(B64/$A64,4)</f>
+        <v>4</v>
+      </c>
+      <c r="C78">
         <f t="shared" si="1"/>
-        <v>7.3524276294097106</v>
-      </c>
-      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0.5</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ref="B79:F79" si="2">MIN(B65/$A65,4)</f>
+        <v>4</v>
+      </c>
+      <c r="C79">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="H59">
-        <v>8.3333333000000006E-3</v>
-      </c>
-      <c r="I59">
-        <v>7.3829356953773795</v>
-      </c>
-      <c r="J59">
-        <v>3.5072336694432265</v>
-      </c>
-      <c r="K59">
-        <v>6.4156712357163217</v>
-      </c>
-      <c r="L59">
-        <v>14.678449090597322</v>
-      </c>
-      <c r="M59">
-        <v>11.593543722156136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>0.5</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="1"/>
         <v>5.8945320000000002E-2</v>
       </c>
-      <c r="D60">
+      <c r="D79">
         <f t="shared" si="2"/>
         <v>2.60152918</v>
       </c>
-      <c r="E60">
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>3.50455732</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>0.5</v>
+      </c>
+      <c r="I79">
+        <v>66.800643426202313</v>
+      </c>
+      <c r="J79">
+        <v>33.707020730256154</v>
+      </c>
+      <c r="K79">
+        <v>31.648226362293681</v>
+      </c>
+      <c r="L79">
+        <v>59.951987685878237</v>
+      </c>
+      <c r="M79">
+        <v>61.484500734728151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80:F80" si="3">MIN(B66/$A66,4)</f>
+        <v>0.78690271000000001</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="3"/>
-        <v>3.50455732</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="4"/>
-        <v>4.65818288</v>
-      </c>
-      <c r="H60">
-        <v>0.5</v>
-      </c>
-      <c r="I60">
-        <v>66.800643426202313</v>
-      </c>
-      <c r="J60">
-        <v>33.707020730256154</v>
-      </c>
-      <c r="K60">
-        <v>31.648226362293681</v>
-      </c>
-      <c r="L60">
-        <v>59.951987685878237</v>
-      </c>
-      <c r="M60">
-        <v>61.484500734728151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>0.78690271000000001</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="1"/>
         <v>0.10968322</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="2"/>
+      <c r="D80">
+        <f t="shared" si="3"/>
         <v>2.7895807499999998</v>
       </c>
-      <c r="E61">
+      <c r="E80">
         <f t="shared" si="3"/>
         <v>2.92848212</v>
       </c>
-      <c r="F61">
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>75.314641323667871</v>
+      </c>
+      <c r="J80">
+        <v>41.99912319158264</v>
+      </c>
+      <c r="K80">
+        <v>44.676495737568992</v>
+      </c>
+      <c r="L80">
+        <v>67.820052186142092</v>
+      </c>
+      <c r="M80">
+        <v>67.962937046626081</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <f>MIN(B67/$A67,4)</f>
+        <v>0.362038894</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="B81:F81" si="4">MIN(C67/$A67,4)</f>
+        <v>3.1793859999999993E-2</v>
+      </c>
+      <c r="D81">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>75.314641323667871</v>
-      </c>
-      <c r="J61">
-        <v>41.99912319158264</v>
-      </c>
-      <c r="K61">
-        <v>44.676495737568992</v>
-      </c>
-      <c r="L61">
-        <v>67.820052186142092</v>
-      </c>
-      <c r="M61">
-        <v>67.962937046626081</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>5</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>0.362038894</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="1"/>
-        <v>3.1793859999999993E-2</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="2"/>
         <v>0.43407833000000001</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="3"/>
+      <c r="E81">
+        <f t="shared" si="4"/>
         <v>2.5926620439999999</v>
       </c>
-      <c r="F62">
+      <c r="F81">
         <f t="shared" si="4"/>
         <v>1.8924863259999998</v>
       </c>
-      <c r="H62">
+      <c r="H81">
         <v>5</v>
       </c>
-      <c r="I62">
+      <c r="I81">
         <v>81.364705286312002</v>
       </c>
-      <c r="J62">
+      <c r="J81">
         <v>61.426692553391369</v>
       </c>
-      <c r="K62">
+      <c r="K81">
         <v>63.933874018604413</v>
       </c>
-      <c r="L62">
+      <c r="L81">
         <v>83.675015651854892</v>
       </c>
-      <c r="M62">
+      <c r="M81">
         <v>82.344365917943691</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>10</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
+      <c r="B82">
+        <f t="shared" ref="B82:F82" si="5">MIN(B68/$A68,4)</f>
         <v>0.22884784499999999</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="1"/>
+      <c r="C82">
+        <f t="shared" si="5"/>
         <v>7.4585899999999993E-3</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="2"/>
+      <c r="D82">
+        <f t="shared" si="5"/>
         <v>0.24397575499999999</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="3"/>
+      <c r="E82">
+        <f t="shared" si="5"/>
         <v>2.6629579300000001</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="4"/>
+      <c r="F82">
+        <f t="shared" si="5"/>
         <v>1.0817596139999999</v>
       </c>
-      <c r="H63">
+      <c r="H82">
         <v>10</v>
       </c>
-      <c r="I63">
+      <c r="I82">
         <v>84.84950835314136</v>
       </c>
-      <c r="J63">
+      <c r="J82">
         <v>72.443164025803213</v>
       </c>
-      <c r="K63">
+      <c r="K82">
         <v>73.233487938227142</v>
       </c>
-      <c r="L63">
+      <c r="L82">
         <v>88.827832254651355</v>
       </c>
-      <c r="M63">
+      <c r="M82">
         <v>89.053133673874001</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>18</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
+      <c r="B83">
+        <f t="shared" ref="B83:F83" si="6">MIN(B69/$A69,4)</f>
         <v>0.79957655166666664</v>
       </c>
-      <c r="C64">
-        <f t="shared" si="1"/>
+      <c r="C83">
+        <f t="shared" si="6"/>
         <v>7.8399205555555549E-3</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="2"/>
+      <c r="D83">
+        <f t="shared" si="6"/>
         <v>0.19392576777777779</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="3"/>
+      <c r="E83">
+        <f t="shared" si="6"/>
         <v>0.80256127111111109</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="4"/>
+      <c r="F83">
+        <f t="shared" si="6"/>
         <v>0.72713091722222223</v>
       </c>
-      <c r="H64">
+      <c r="H83">
         <v>18</v>
       </c>
-      <c r="I64">
+      <c r="I83">
         <v>85.952705640956367</v>
       </c>
-      <c r="J64">
+      <c r="J83">
         <v>80.052608505041647</v>
       </c>
-      <c r="K64">
+      <c r="K83">
         <v>81.359313865208719</v>
       </c>
-      <c r="L64">
+      <c r="L83">
         <v>92.95593421302739</v>
       </c>
-      <c r="M64">
+      <c r="M83">
         <v>92.923285051197723</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>24</v>
       </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
+      <c r="B84">
+        <f t="shared" ref="B84:F84" si="7">MIN(B70/$A70,4)</f>
         <v>0.12756099833333334</v>
       </c>
-      <c r="C65">
-        <f t="shared" si="1"/>
+      <c r="C84">
+        <f t="shared" si="7"/>
         <v>6.5440070833333334E-3</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="2"/>
+      <c r="D84">
+        <f t="shared" si="7"/>
         <v>0.29466601666666664</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="3"/>
+      <c r="E84">
+        <f t="shared" si="7"/>
         <v>0.68786010499999994</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="4"/>
+      <c r="F84">
+        <f t="shared" si="7"/>
         <v>0.7781765620833333</v>
       </c>
-      <c r="H65">
+      <c r="H84">
         <v>24</v>
       </c>
-      <c r="I65">
+      <c r="I84">
         <v>100.00000000000001</v>
       </c>
-      <c r="J65">
+      <c r="J84">
         <v>100</v>
       </c>
-      <c r="K65">
+      <c r="K84">
         <v>100</v>
       </c>
-      <c r="L65">
+      <c r="L84">
         <v>100</v>
       </c>
-      <c r="M65">
+      <c r="M84">
         <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K90" t="s">
+        <v>43</v>
+      </c>
+      <c r="L90" t="s">
+        <v>44</v>
+      </c>
+      <c r="M90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <f>LOG10(1)</f>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <f>LOG10(30)</f>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
+      </c>
+      <c r="J93">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f>LOG10(30*60)</f>
+        <v>3.255272505103306</v>
+      </c>
+      <c r="B94">
+        <v>5.7788687599999999</v>
+      </c>
+      <c r="C94">
+        <v>2.9472660000000001E-2</v>
+      </c>
+      <c r="D94">
+        <v>1.30076459</v>
+      </c>
+      <c r="E94">
+        <v>1.75227866</v>
+      </c>
+      <c r="F94">
+        <v>2.32909144</v>
+      </c>
+      <c r="H94">
+        <f>LOG10(30*60)</f>
+        <v>3.255272505103306</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>5.8945320000000002E-2</v>
+      </c>
+      <c r="K94">
+        <v>2.60152918</v>
+      </c>
+      <c r="L94">
+        <v>3.50455732</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f>LOG10(60*60)</f>
+        <v>3.5563025007672873</v>
+      </c>
+      <c r="B95">
+        <v>0.78690271000000001</v>
+      </c>
+      <c r="C95">
+        <v>0.10968322</v>
+      </c>
+      <c r="D95">
+        <v>2.7895807499999998</v>
+      </c>
+      <c r="E95">
+        <v>2.92848212</v>
+      </c>
+      <c r="F95">
+        <v>9.8265051299999993</v>
+      </c>
+      <c r="H95">
+        <f>LOG10(60*60)</f>
+        <v>3.5563025007672873</v>
+      </c>
+      <c r="I95">
+        <v>0.78690271000000001</v>
+      </c>
+      <c r="J95">
+        <v>0.10968322</v>
+      </c>
+      <c r="K95">
+        <v>2.7895807499999998</v>
+      </c>
+      <c r="L95">
+        <v>2.92848212</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f>LOG10(5*60*60)</f>
+        <v>4.2552725051033065</v>
+      </c>
+      <c r="B96">
+        <v>1.8101944699999999</v>
+      </c>
+      <c r="C96">
+        <v>0.15896929999999998</v>
+      </c>
+      <c r="D96">
+        <v>2.17039165</v>
+      </c>
+      <c r="E96">
+        <v>12.96331022</v>
+      </c>
+      <c r="F96">
+        <v>9.4624316299999993</v>
+      </c>
+      <c r="H96">
+        <f>LOG10(5*60*60)</f>
+        <v>4.2552725051033065</v>
+      </c>
+      <c r="I96">
+        <v>0.362038894</v>
+      </c>
+      <c r="J96">
+        <v>3.1793859999999993E-2</v>
+      </c>
+      <c r="K96">
+        <v>0.43407833000000001</v>
+      </c>
+      <c r="L96">
+        <v>2.5926620439999999</v>
+      </c>
+      <c r="M96">
+        <v>1.8924863259999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f>LOG(10*60*60)</f>
+        <v>4.5563025007672868</v>
+      </c>
+      <c r="B97">
+        <v>2.2884784499999999</v>
+      </c>
+      <c r="C97">
+        <v>7.4585899999999997E-2</v>
+      </c>
+      <c r="D97">
+        <v>2.4397575499999999</v>
+      </c>
+      <c r="E97">
+        <v>26.6295793</v>
+      </c>
+      <c r="F97">
+        <v>10.817596139999999</v>
+      </c>
+      <c r="H97">
+        <f>LOG(10*60*60)</f>
+        <v>4.5563025007672868</v>
+      </c>
+      <c r="I97">
+        <v>0.22884784499999999</v>
+      </c>
+      <c r="J97">
+        <v>7.4585899999999993E-3</v>
+      </c>
+      <c r="K97">
+        <v>0.24397575499999999</v>
+      </c>
+      <c r="L97">
+        <v>2.6629579300000001</v>
+      </c>
+      <c r="M97">
+        <v>1.0817596139999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f>LOG(18*60*60)</f>
+        <v>4.8115750058705933</v>
+      </c>
+      <c r="B98">
+        <v>14.39237793</v>
+      </c>
+      <c r="C98">
+        <v>0.14111857</v>
+      </c>
+      <c r="D98">
+        <v>3.49066382</v>
+      </c>
+      <c r="E98">
+        <v>14.44610288</v>
+      </c>
+      <c r="F98">
+        <v>13.088356510000001</v>
+      </c>
+      <c r="H98">
+        <f>LOG(18*60*60)</f>
+        <v>4.8115750058705933</v>
+      </c>
+      <c r="I98">
+        <v>0.79957655166666664</v>
+      </c>
+      <c r="J98">
+        <v>7.8399205555555549E-3</v>
+      </c>
+      <c r="K98">
+        <v>0.19392576777777779</v>
+      </c>
+      <c r="L98">
+        <v>0.80256127111111109</v>
+      </c>
+      <c r="M98">
+        <v>0.72713091722222223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f>LOG(24*60*60)</f>
+        <v>4.9365137424788932</v>
+      </c>
+      <c r="B99">
+        <v>3.0614639600000002</v>
+      </c>
+      <c r="C99">
+        <v>0.15705616999999999</v>
+      </c>
+      <c r="D99">
+        <v>7.0719843999999998</v>
+      </c>
+      <c r="E99">
+        <v>16.508642519999999</v>
+      </c>
+      <c r="F99">
+        <v>18.676237489999998</v>
+      </c>
+      <c r="H99">
+        <f>LOG(24*60*60)</f>
+        <v>4.9365137424788932</v>
+      </c>
+      <c r="I99">
+        <v>0.12756099833333334</v>
+      </c>
+      <c r="J99">
+        <v>6.5440070833333334E-3</v>
+      </c>
+      <c r="K99">
+        <v>0.29466601666666664</v>
+      </c>
+      <c r="L99">
+        <v>0.68786010499999994</v>
+      </c>
+      <c r="M99">
+        <v>0.7781765620833333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>0.5</v>
+      </c>
+      <c r="B105">
+        <f>100*$A105/($A105+B65)</f>
+        <v>7.963217883853333</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ref="C105:F105" si="8">100*$A105/($A105+C65)</f>
+        <v>94.433582274106456</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="8"/>
+        <v>27.765983559239135</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="8"/>
+        <v>22.199739707163943</v>
+      </c>
+      <c r="F105">
+        <f>100*$A105/($A105+F65)</f>
+        <v>17.673518534275441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106:F106" si="9">100*$A106/($A106+B66)</f>
+        <v>55.962755801069882</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="9"/>
+        <v>90.11580800509897</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="9"/>
+        <v>26.388143332214256</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="9"/>
+        <v>25.455124128196363</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="9"/>
+        <v>9.2365910142971508</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ref="B107:F107" si="10">100*$A107/($A107+B67)</f>
+        <v>73.41934245821912</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="10"/>
+        <v>96.918584105549925</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="10"/>
+        <v>69.731198016219935</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="10"/>
+        <v>27.834513454168917</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="10"/>
+        <v>34.572332840822568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>10</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ref="B108:F108" si="11">100*$A108/($A108+B68)</f>
+        <v>81.37703980756055</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="11"/>
+        <v>99.259662871106187</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="11"/>
+        <v>80.387418804637392</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="11"/>
+        <v>27.30034084775852</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="11"/>
+        <v>48.036285903277211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>18</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ref="B109:F109" si="12">100*$A109/($A109+B69)</f>
+        <v>55.568628023845726</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="12"/>
+        <v>99.222106567158605</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="12"/>
+        <v>83.757301080893271</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="12"/>
+        <v>55.476616302956138</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="12"/>
+        <v>57.899490422435328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>24</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ref="B110:F110" si="13">100*$A110/($A110+B70)</f>
+        <v>88.686997996393686</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="13"/>
+        <v>99.349853852660061</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="13"/>
+        <v>77.239997584447821</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="13"/>
+        <v>59.246616294660278</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="13"/>
+        <v>56.237385045070432</v>
+      </c>
+    </row>
+    <row r="113" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>54</v>
+      </c>
+      <c r="H113">
+        <v>1620435.2128418479</v>
+      </c>
+    </row>
+    <row r="114" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>55</v>
+      </c>
+      <c r="H114">
+        <v>46.871369144675342</v>
+      </c>
+    </row>
+    <row r="116" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>60</v>
+      </c>
+      <c r="I116" t="s">
+        <v>61</v>
+      </c>
+      <c r="J116" t="s">
+        <v>63</v>
+      </c>
+      <c r="K116" t="s">
+        <v>62</v>
+      </c>
+      <c r="M116" t="s">
+        <v>59</v>
+      </c>
+      <c r="N116" t="s">
+        <v>58</v>
+      </c>
+      <c r="O116" t="s">
+        <v>64</v>
+      </c>
+      <c r="P116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>54</v>
+      </c>
+      <c r="H117">
+        <v>33266.624311413056</v>
+      </c>
+      <c r="I117">
+        <v>330870.72171467385</v>
+      </c>
+      <c r="J117">
+        <v>1542359.3504809781</v>
+      </c>
+      <c r="K117">
+        <v>1578520.8310358694</v>
+      </c>
+      <c r="M117">
+        <v>6020.0970875000048</v>
+      </c>
+      <c r="N117">
+        <v>6020.0970875000048</v>
+      </c>
+      <c r="O117">
+        <v>6020.0970875000048</v>
+      </c>
+      <c r="P117">
+        <v>6020.0970875000048</v>
+      </c>
+    </row>
+    <row r="118" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
+        <v>55</v>
+      </c>
+      <c r="H118">
+        <f>H117/$H$113*$H$114</f>
+        <v>0.96224286903943823</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ref="I118:J118" si="14">I117/$H$113*$H$114</f>
+        <v>9.5704929229819324</v>
+      </c>
+      <c r="J118">
+        <f>J117/$H$113*$H$114</f>
+        <v>44.613011305371614</v>
+      </c>
+      <c r="K118">
+        <f>K117/$H$113*$H$114</f>
+        <v>45.65898839256031</v>
+      </c>
+      <c r="M118">
+        <v>6753.8721836956565</v>
+      </c>
+      <c r="N118">
+        <v>63.502464673913025</v>
+      </c>
+      <c r="O118">
+        <v>12403.447379347817</v>
+      </c>
+      <c r="P118">
+        <v>12403.447379347817</v>
+      </c>
+    </row>
+    <row r="119" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <v>9555.1356836956529</v>
+      </c>
+      <c r="N119">
+        <v>151.54070652173922</v>
+      </c>
+      <c r="O119">
+        <v>63.502464673913025</v>
+      </c>
+      <c r="P119">
+        <v>34537.464498369569</v>
+      </c>
+    </row>
+    <row r="120" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="M120">
+        <v>10937.519356521741</v>
+      </c>
+      <c r="N120">
+        <v>6753.8721836956565</v>
+      </c>
+      <c r="O120">
+        <v>151.54070652173922</v>
+      </c>
+      <c r="P120">
+        <v>948.64952717391327</v>
+      </c>
+    </row>
+    <row r="121" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>6161.9337880434787</v>
+      </c>
+      <c r="O121">
+        <v>73.452868478260854</v>
+      </c>
+      <c r="P121">
+        <v>63.502464673913025</v>
+      </c>
+    </row>
+    <row r="122" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>52774.629335326092</v>
+      </c>
+      <c r="O122">
+        <v>6753.8721836956565</v>
+      </c>
+      <c r="P122">
+        <v>151.54070652173922</v>
+      </c>
+    </row>
+    <row r="123" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>62293.716241847804</v>
+      </c>
+      <c r="O123">
+        <v>6161.9337880434787</v>
+      </c>
+      <c r="P123">
+        <v>838.21121576086932</v>
+      </c>
+    </row>
+    <row r="124" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <v>9555.1356836956529</v>
+      </c>
+      <c r="O124">
+        <v>52774.629335326092</v>
+      </c>
+      <c r="P124">
+        <v>6753.8721836956565</v>
+      </c>
+    </row>
+    <row r="125" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>10937.519356521741</v>
+      </c>
+      <c r="O125">
+        <v>62293.716241847804</v>
+      </c>
+      <c r="P125">
+        <v>6161.9337880434787</v>
+      </c>
+    </row>
+    <row r="126" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>72231.492197826054</v>
+      </c>
+      <c r="O126">
+        <v>87581.703620108688</v>
+      </c>
+      <c r="P126">
+        <v>52774.629335326092</v>
+      </c>
+    </row>
+    <row r="127" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>103927.28266902175</v>
+      </c>
+      <c r="O127">
+        <v>420730.90385108703</v>
+      </c>
+      <c r="P127">
+        <v>62293.716241847804</v>
+      </c>
+    </row>
+    <row r="128" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="O128">
+        <v>89.391817934782608</v>
+      </c>
+      <c r="P128">
+        <v>87581.703620108688</v>
+      </c>
+    </row>
+    <row r="129" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <v>9555.1356836956529</v>
+      </c>
+      <c r="P129">
+        <v>420730.90385108703</v>
+      </c>
+    </row>
+    <row r="130" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <v>10937.519356521741</v>
+      </c>
+      <c r="P130">
+        <v>9555.1356836956529</v>
+      </c>
+    </row>
+    <row r="131" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <v>72231.492197826054</v>
+      </c>
+      <c r="P131">
+        <v>10937.519356521741</v>
+      </c>
+    </row>
+    <row r="132" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="O132">
+        <v>103927.28266902175</v>
+      </c>
+      <c r="P132">
+        <v>72231.492197826054</v>
+      </c>
+    </row>
+    <row r="133" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>116584.07416249998</v>
+      </c>
+      <c r="P133">
+        <v>103927.28266902175</v>
+      </c>
+    </row>
+    <row r="134" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>574025.65506684768</v>
+      </c>
+      <c r="P134">
+        <v>116584.07416249998</v>
+      </c>
+    </row>
+    <row r="135" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="P135">
+        <v>574025.65506684768</v>
+      </c>
+    </row>
+    <row r="136" spans="13:16" x14ac:dyDescent="0.2">
+      <c r="M136">
+        <f>SUM(M117:M135)</f>
+        <v>33266.624311413056</v>
+      </c>
+      <c r="N136">
+        <f t="shared" ref="N136:O136" si="15">SUM(N117:N135)</f>
+        <v>330870.72171467385</v>
+      </c>
+      <c r="O136">
+        <f>SUM(O117:O135)</f>
+        <v>1542359.3504809781</v>
+      </c>
+      <c r="P136">
+        <f>SUM(P117:P135)</f>
+        <v>1578520.8310358694</v>
       </c>
     </row>
   </sheetData>
